--- a/biology/Botanique/Acalypha/Acalypha.xlsx
+++ b/biology/Botanique/Acalypha/Acalypha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acalypha est un genre de plantes à fleurs de la famille des Euphorbiaceae.
 Ce sont des plantes herbacées, des buissons ou de petits arbres. Les espèces se retrouvent principalement dans les régions tropicales et subtropicales, avec environ 60% des espèces originaire d'Amérique et environ 30% en Afrique.
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Selon ITIS      (21 janvier 2018)[2] :
+          <t xml:space="preserve">Selon ITIS      (21 janvier 2018) :
 Acalypha alopecuroidea Jacq.
 Acalypha amentacea Roxb.
 Acalypha arvensis Poepp.
@@ -548,7 +562,7 @@
 Acalypha setosa A. Rich.
 Acalypha virginica L.
 Acalypha wilkesiana Müll. Arg.
-Selon World Checklist of Selected Plant Families (WCSP)  (28 décembre 2013)[3] :
+Selon World Checklist of Selected Plant Families (WCSP)  (28 décembre 2013) :
 Acalypha abingdonii Seberg (1984)
 Acalypha acapulcensis Fernald (1897)
 Acalypha accedens Müll.Arg. (1865)
@@ -1005,7 +1019,7 @@
 Acalypha wui H.S.Kiu (1995)
 Acalypha zeyheri Baill. (1863)
 Acalypha zollingeri Müll.Arg. (1865)
-Selon NCBI  (28 décembre 2013)[4] :
+Selon NCBI  (28 décembre 2013) :
 Acalypha alopecuroidea
 Acalypha australis
 Acalypha californica
@@ -1024,7 +1038,7 @@
 Acalypha rhomboidea
 Acalypha schiedeana
 Acalypha wilkesiana
-Selon The Plant List            (28 décembre 2013)[5] :
+Selon The Plant List            (28 décembre 2013) :
 Acalypha abingdonii Seberg
 Acalypha acapulcensis Fernald
 Acalypha accedens Müll.Arg.
@@ -1480,9 +1494,9 @@
 Acalypha yucatanensis Millsp.
 Acalypha zeyheri Baill.
 Acalypha zollingeri Müll.Arg.
-Selon Paleobiology Database                   (28 décembre 2013)[6] :
+Selon Paleobiology Database                   (28 décembre 2013) :
 Acalypha aequalis
-Selon Tropicos                                           (28 décembre 2013)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (28 décembre 2013) (Attention liste brute contenant possiblement des synonymes) :
 Acalypha abingdonii Seberg
 Acalypha abortiva Hochst. ex Baill.
 Acalypha acapulcensis Fernald
@@ -1498,7 +1512,8 @@
 Acalypha adenostachya Müll. Arg.
 Acalypha adenotricha A. Rich.
 Acalypha adscendens Hornem.
-Acalypha affinis </t>
+Acalypha affinis Klotzsch
+Acalypha </t>
         </is>
       </c>
     </row>
